--- a/employment/incidence_of_non_competes_data.xlsx
+++ b/employment/incidence_of_non_competes_data.xlsx
@@ -1,58 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Documents/GitHub/bfh-textbook/employment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BFB815-A5AE-2948-8FD9-1806009252EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20800" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;HS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS grad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1 year college</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;1 year of college</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof Degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctorate</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>&lt;HS</t>
+  </si>
+  <si>
+    <t>HS grad</t>
+  </si>
+  <si>
+    <t>&gt;1 year of college</t>
+  </si>
+  <si>
+    <t>Associates</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Prof Degree</t>
+  </si>
+  <si>
+    <t>Doctorate</t>
+  </si>
+  <si>
+    <t>&lt;1 year of college</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -88,6 +95,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,14 +385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,80 +402,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.199285714285714</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.19928571428571401</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>0.130178571428571</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0.118928571428571</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.11892857142857099</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.13982142857142901</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0.139821428571429</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.18160714285714299</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0.181607142857143</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.250714285714286</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0.250714285714286</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0.2925</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.39053571428571399</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0.390535714285714</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.21214285714285699</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0.212142857142857</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>